--- a/2018/Nordeste/MA/resultado.xlsx
+++ b/2018/Nordeste/MA/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>DS_GENERO</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,6 +574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,6 +674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,6 +774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -794,6 +874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,6 +924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,6 +974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +1024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,6 +1074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1034,6 +1174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1114,6 +1274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1154,6 +1324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1194,6 +1374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1234,6 +1424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1274,6 +1474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1314,6 +1524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1354,6 +1574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1394,6 +1624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1434,6 +1674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1474,6 +1724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1514,6 +1774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1554,6 +1824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1594,6 +1874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1634,6 +1924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1674,6 +1974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1714,6 +2024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1754,6 +2074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1794,6 +2124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1834,6 +2174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1874,6 +2224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1914,6 +2274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1954,6 +2324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1994,6 +2374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2034,6 +2424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2074,6 +2474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2114,6 +2524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2154,6 +2574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2194,6 +2624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2234,6 +2674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2274,6 +2724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2314,6 +2774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2354,6 +2824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2394,6 +2874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2434,6 +2924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2474,6 +2974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2514,6 +3024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2554,6 +3074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2594,6 +3124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2634,6 +3174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2674,6 +3224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2714,6 +3274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2754,6 +3324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2794,6 +3374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2834,6 +3424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2874,6 +3474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2914,6 +3524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2954,6 +3574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2994,6 +3624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3034,6 +3674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3074,6 +3724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3114,6 +3774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3154,6 +3824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3194,6 +3874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3234,6 +3924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3274,6 +3974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3314,6 +4024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3354,6 +4074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3394,6 +4124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3434,6 +4174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3474,6 +4224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3514,6 +4274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3554,6 +4324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3594,6 +4374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3634,6 +4424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3674,6 +4474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3714,6 +4524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3754,6 +4574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3794,6 +4624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3834,6 +4674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3874,6 +4724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3914,6 +4774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3954,6 +4824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3994,6 +4874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4034,6 +4924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4074,6 +4974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4114,6 +5024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4154,6 +5074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4194,6 +5124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4234,6 +5174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4274,6 +5224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4314,6 +5274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4354,6 +5324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4394,6 +5374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4434,6 +5424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4474,6 +5474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4514,6 +5524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4554,6 +5574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4594,6 +5624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4634,6 +5674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4674,6 +5724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4714,6 +5774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4754,6 +5824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4794,6 +5874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4834,6 +5924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4874,6 +5974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4914,6 +6024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4954,6 +6074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4994,6 +6124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5034,6 +6174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5074,6 +6224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5114,6 +6274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5154,6 +6324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5194,6 +6374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5234,6 +6424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5274,6 +6474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5314,6 +6524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5354,6 +6574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5394,6 +6624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5434,6 +6674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5474,6 +6724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5514,6 +6774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5554,6 +6824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5594,6 +6874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5634,6 +6924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5674,6 +6974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5714,6 +7024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5754,6 +7074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5794,6 +7124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5834,6 +7174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5874,6 +7224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5914,6 +7274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5954,6 +7324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5994,6 +7374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6034,6 +7424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6074,6 +7474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6114,6 +7524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6154,6 +7574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6194,6 +7624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6234,6 +7674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6274,6 +7724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6314,6 +7774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6354,6 +7824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6394,6 +7874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6434,6 +7924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6474,6 +7974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6514,6 +8024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6554,6 +8074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6594,6 +8124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6634,6 +8174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6674,6 +8224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6714,6 +8274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6754,6 +8324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6794,6 +8374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6834,6 +8424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6874,6 +8474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6914,6 +8524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6954,6 +8574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6994,6 +8624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7034,6 +8674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7074,6 +8724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7114,6 +8774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7154,6 +8824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7194,6 +8874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7234,6 +8924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7274,6 +8974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7314,6 +9024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7354,6 +9074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7394,6 +9124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7434,6 +9174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7474,6 +9224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7514,6 +9274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7554,6 +9324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7594,6 +9374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7634,6 +9424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7674,6 +9474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7714,6 +9524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7754,6 +9574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7794,6 +9624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7834,6 +9674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7874,6 +9724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7914,6 +9774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7954,6 +9824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7994,6 +9874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8034,6 +9924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8074,6 +9974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8114,6 +10024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8154,6 +10074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8194,6 +10124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8234,6 +10174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8274,6 +10224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8314,6 +10274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8354,6 +10324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8394,6 +10374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8434,6 +10424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8474,6 +10474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8514,6 +10524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8554,6 +10574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8594,6 +10624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8634,6 +10674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8674,6 +10724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8714,6 +10774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8754,6 +10824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8794,6 +10874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8834,6 +10924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8874,6 +10974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8914,6 +11024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8954,6 +11074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8992,6 +11122,16 @@
       <c r="H214" t="inlineStr">
         <is>
           <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
     </row>

--- a/2018/Nordeste/MA/resultado.xlsx
+++ b/2018/Nordeste/MA/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DS_ESTADO_CIVIL</t>
+          <t>DS_ESTADO_CIVIL_x</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS_GRAU_INSTRUCAO</t>
+          <t>DS_GRAU_INSTRUCAO_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO</t>
         </is>
       </c>
     </row>
@@ -534,6 +554,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>100000601449</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,6 +622,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>100000601450</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -634,6 +690,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>100000601451</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,6 +758,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>100000601452</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +826,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>100000601453</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -784,6 +894,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>100000601454</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -834,6 +962,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>100000601455</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -884,6 +1030,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>100000601456</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -934,6 +1098,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>100000601457</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -984,6 +1166,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>100000601458</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1034,6 +1234,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>100000601459</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1084,6 +1302,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>100000601460</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1134,6 +1370,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>100000601461</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1184,6 +1438,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>100000601462</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1234,6 +1506,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>100000601463</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1284,6 +1574,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>100000601464</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1334,6 +1642,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>100000601465</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1384,6 +1710,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>100000601466</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1434,6 +1778,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>100000601467</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1484,6 +1846,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>100000601468</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1534,6 +1914,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>100000601469</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1584,6 +1982,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>100000601470</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1634,6 +2050,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>100000601889</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1684,6 +2118,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>100000601890</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1734,6 +2186,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>100000601891</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1784,6 +2254,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>100000601892</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1834,6 +2322,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>100000601893</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1884,6 +2390,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>100000601894</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1934,6 +2458,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>100000601895</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1984,6 +2526,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>100000601896</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2034,6 +2594,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>100000601897</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2084,6 +2662,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>100000601898</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2134,6 +2730,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>100000601899</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2184,6 +2798,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>100000601900</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2234,6 +2866,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>100000601901</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2284,6 +2934,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>100000601902</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2334,6 +3002,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>100000601903</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2384,6 +3070,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>100000601904</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2434,6 +3138,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>100000601905</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2484,6 +3206,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>100000601906</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2534,6 +3274,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>100000601907</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2584,6 +3342,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>100000601908</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2634,6 +3410,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>100000601909</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2684,6 +3478,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>100000601910</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2734,6 +3546,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>100000601911</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2784,6 +3614,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>100000601912</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2834,6 +3682,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>100000601913</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2884,6 +3750,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>100000601914</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2934,6 +3818,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>100000602472</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2984,6 +3886,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>100000602474</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3034,6 +3954,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>100000605541</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3084,6 +4022,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>100000609094</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3134,6 +4090,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>100000609095</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3184,6 +4158,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>100000609096</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3234,6 +4226,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>100000609097</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3284,6 +4294,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>100000609098</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3334,6 +4362,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>100000609099</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3384,6 +4430,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>100000609100</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3434,6 +4498,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>100000609101</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3484,6 +4566,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>100000609102</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3534,6 +4634,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>100000609103</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3584,6 +4702,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>100000609104</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3634,6 +4770,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>100000609105</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3684,6 +4838,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>100000609106</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3734,6 +4906,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>100000609107</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3784,6 +4974,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>100000609108</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3834,6 +5042,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>100000609109</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3884,6 +5110,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>100000609110</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3934,6 +5178,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>100000609111</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3984,6 +5246,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>100000609112</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4034,6 +5314,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>100000609113</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4084,6 +5382,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>100000609114</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4134,6 +5450,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>100000609115</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4184,6 +5518,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>100000609116</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4234,6 +5586,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>100000609117</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4284,6 +5654,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>100000609118</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4334,6 +5722,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>100000609119</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4384,6 +5790,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>100000609423</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4434,6 +5858,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>100000609424</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4484,6 +5926,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>100000609425</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4534,6 +5994,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>100000609426</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4584,6 +6062,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>100000609427</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4634,6 +6130,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>100000609428</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4684,6 +6198,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>100000609429</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4734,6 +6266,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>100000609430</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4784,6 +6334,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>100000609431</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4834,6 +6402,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>100000609432</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4884,6 +6470,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>100000609433</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4934,6 +6538,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>100000609434</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4984,6 +6606,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>100000609435</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5034,6 +6674,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>100000609436</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5084,6 +6742,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>100000609437</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5134,6 +6810,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>100000609438</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5184,6 +6878,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>100000609439</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5234,6 +6946,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>100000609440</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5284,6 +7014,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>100000609441</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5334,6 +7082,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>100000609442</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5384,6 +7150,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>100000609443</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5434,6 +7218,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>100000609444</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5484,6 +7286,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>100000613970</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5534,6 +7354,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>100000613971</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5584,6 +7422,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>100000613972</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5634,6 +7490,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>100000613973</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5684,6 +7558,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>100000613974</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5734,6 +7626,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>100000613975</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5784,6 +7694,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>100000613976</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5834,6 +7762,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>100000613977</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5884,6 +7830,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>100000613978</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5934,6 +7898,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>100000613979</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5984,6 +7966,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>100000613980</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6034,6 +8034,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>100000613981</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6084,6 +8102,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>100000613982</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6134,6 +8170,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>100000613983</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6184,6 +8238,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>100000613984</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6234,6 +8306,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>100000613985</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6284,6 +8374,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>100000613986</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6334,6 +8442,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>100000613987</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6384,6 +8510,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>100000613988</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6434,6 +8578,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>100000613989</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6484,6 +8646,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>100000613990</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6534,6 +8714,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>100000613991</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6584,6 +8782,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>100000613992</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6634,6 +8850,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>100000613993</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6684,6 +8918,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>100000613994</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6734,6 +8986,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>100000613995</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6784,6 +9054,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>100000613996</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6834,6 +9122,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>100000615044</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6884,6 +9190,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>100000615045</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6934,6 +9258,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>100000615046</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6984,6 +9326,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>100000615047</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7034,6 +9394,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>100000615048</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7084,6 +9462,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>100000615049</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7134,6 +9530,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>100000615050</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7184,6 +9598,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>100000615051</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7234,6 +9666,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>100000615052</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7284,6 +9734,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>100000615053</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7334,6 +9802,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>100000615054</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7384,6 +9870,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>100000615055</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7434,6 +9938,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>100000615056</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7484,6 +10006,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>100000615057</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7534,6 +10074,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>100000615058</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7584,6 +10142,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>100000615059</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7634,6 +10210,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>100000615060</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7684,6 +10278,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>100000615061</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7734,6 +10346,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>100000615062</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7784,6 +10414,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>100000615063</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7834,6 +10482,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>100000615064</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7884,6 +10550,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>100000615065</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7934,6 +10618,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>100000615066</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7984,6 +10686,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>100000615067</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8034,6 +10754,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>100000615068</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8084,6 +10822,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>100000615069</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8134,6 +10890,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>100000615070</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8184,6 +10958,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>100000615458</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8234,6 +11026,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>100000616267</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8284,6 +11094,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>100000616268</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8334,6 +11162,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>100000616269</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8384,6 +11230,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>100000616270</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8434,6 +11298,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>100000616271</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8484,6 +11366,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>100000616272</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8534,6 +11434,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>100000616273</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8584,6 +11502,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>100000616274</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8634,6 +11570,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>100000616283</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8684,6 +11638,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>100000616284</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8734,6 +11706,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>100000616285</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8784,6 +11774,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>100000616286</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8834,6 +11842,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>100000616287</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8884,6 +11910,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>100000616288</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8934,6 +11978,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>100000616289</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8984,6 +12046,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>100000616291</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9034,6 +12114,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>100000616292</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9084,6 +12182,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>100000616293</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9134,6 +12250,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>100000616305</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9184,6 +12318,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>100000616306</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9234,6 +12386,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>100000616309</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9284,6 +12454,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>100000616310</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9334,6 +12522,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>100000616311</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9384,6 +12590,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>100000616312</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9434,6 +12658,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>100000616317</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9484,6 +12726,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>100000618761</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9534,6 +12794,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>100000618763</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9584,6 +12862,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>100000618764</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9634,6 +12930,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>100000618766</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9684,6 +12998,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>100000618770</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9734,6 +13066,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>100000618771</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9784,6 +13134,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>100000618772</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9834,6 +13202,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>100000618777</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9884,6 +13270,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>100000618778</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9934,6 +13338,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>100000618784</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9984,6 +13406,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>100000618785</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10034,6 +13474,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>100000618786</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10084,6 +13542,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>100000618787</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10134,6 +13610,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>100000618788</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10184,6 +13678,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>100000618789</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10234,6 +13746,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>100000618800</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10284,6 +13814,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>100000618801</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10334,6 +13882,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>100000618804</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10384,6 +13950,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>100000628181</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10434,6 +14018,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>100000628191</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10484,6 +14086,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>100000628192</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10534,6 +14154,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>100000628400</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10584,6 +14222,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>100000628401</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10634,6 +14290,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>100000628413</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10684,6 +14358,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>100000629193</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10734,6 +14426,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>100000629613</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10784,6 +14494,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>100000629725</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10834,6 +14562,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>100000629841</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10884,6 +14630,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>100000629847</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10934,6 +14698,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>100000629951</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10984,6 +14766,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>100000630059</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11034,6 +14834,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>100000630061</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11084,6 +14902,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>100000630071</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11132,6 +14968,24 @@
       <c r="J214" t="inlineStr">
         <is>
           <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>100000630111</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>PPL</t>
         </is>
       </c>
     </row>

--- a/2018/Nordeste/MA/resultado.xlsx
+++ b/2018/Nordeste/MA/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:R214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>SG_PARTIDO_x</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO_y</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>SQ_CANDIDATO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>SG_PARTIDO</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DS_COR_RACA</t>
         </is>
       </c>
     </row>
@@ -564,12 +584,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>100000601449</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -632,12 +672,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>100000601450</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -700,12 +760,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>100000601451</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -768,12 +848,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>100000601452</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -836,12 +936,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>100000601453</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -904,12 +1024,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>100000601454</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -972,12 +1112,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>100000601455</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1200,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>100000601456</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1288,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>100000601457</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1376,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>100000601458</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1244,12 +1464,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>100000601459</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1552,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>100000601460</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1640,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>100000601461</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1728,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>100000601462</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1816,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>100000601463</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1904,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>100000601464</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1992,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>100000601465</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1720,12 +2080,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>100000601466</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1788,12 +2168,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>100000601467</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1856,12 +2256,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>100000601468</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1924,12 +2344,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>100000601469</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1992,12 +2432,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>100000601470</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2060,12 +2520,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
         <v>100000601889</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2128,12 +2608,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>100000601890</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2696,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
         <v>100000601891</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2264,12 +2784,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>100000601892</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>PTB</t>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2872,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>100000601893</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>PTB</t>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2960,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>100000601894</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>PTB</t>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2468,12 +3048,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>100000601895</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>SOLIDARIEDADE</t>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2536,12 +3136,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
         <v>100000601896</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>SOLIDARIEDADE</t>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2604,12 +3224,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
         <v>100000601897</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>INDÍGENA</t>
         </is>
       </c>
     </row>
@@ -2672,12 +3312,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
         <v>100000601898</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -2740,12 +3400,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>100000601899</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2808,12 +3488,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>100000601900</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -2876,12 +3576,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>100000601901</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2944,12 +3664,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>100000601902</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3012,12 +3752,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>100000601903</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3080,12 +3840,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>100000601904</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -3148,12 +3928,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>100000601905</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3216,12 +4016,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>100000601906</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3284,12 +4104,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>100000601907</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3352,12 +4192,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
         <v>100000601908</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3420,12 +4280,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
         <v>100000601909</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -3488,12 +4368,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>100000601910</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3556,12 +4456,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
         <v>100000601911</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3624,12 +4544,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
         <v>100000601912</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>PRB</t>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3692,12 +4632,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>100000601913</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3760,12 +4720,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>100000601914</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3828,12 +4808,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>100000602472</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>PSTU</t>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -3896,12 +4896,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>100000602474</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>PSTU</t>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3964,12 +4984,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
         <v>100000605541</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>PSTU</t>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4032,12 +5072,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>100000609094</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4100,12 +5160,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
         <v>100000609095</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4168,12 +5248,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
         <v>100000609096</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4236,12 +5336,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>100000609097</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4304,12 +5424,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
         <v>100000609098</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4372,12 +5512,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>100000609099</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4440,12 +5600,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>100000609100</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4508,12 +5688,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>100000609101</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4576,12 +5776,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>100000609102</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4644,12 +5864,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
         <v>100000609103</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4712,12 +5952,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
         <v>100000609104</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4780,12 +6040,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
         <v>100000609105</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4848,12 +6128,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
         <v>100000609106</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4916,12 +6216,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
         <v>100000609107</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4984,12 +6304,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
         <v>100000609108</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5052,12 +6392,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>100000609109</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5120,12 +6480,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>100000609110</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>PMB</t>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5188,12 +6568,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>100000609111</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>PMB</t>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5256,12 +6656,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
         <v>100000609112</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>PMB</t>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5324,12 +6744,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
         <v>100000609113</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>PSC</t>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5392,12 +6832,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
         <v>100000609114</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>PSC</t>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5460,12 +6920,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
         <v>100000609115</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>PSC</t>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5528,12 +7008,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
         <v>100000609116</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>PSC</t>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5596,12 +7096,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
         <v>100000609117</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5664,12 +7184,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
         <v>100000609118</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5732,12 +7272,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
         <v>100000609119</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5800,12 +7360,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>100000609423</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5868,12 +7448,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>100000609424</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7536,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>100000609425</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6004,12 +7624,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
         <v>100000609426</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6072,12 +7712,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
         <v>100000609427</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -6140,12 +7800,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>100000609428</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6208,12 +7888,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
         <v>100000609429</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6276,12 +7976,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
         <v>100000609430</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6344,12 +8064,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
         <v>100000609431</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6412,12 +8152,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
         <v>100000609432</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6480,12 +8240,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
         <v>100000609433</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6548,12 +8328,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
         <v>100000609434</v>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6616,12 +8416,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
         <v>100000609435</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -6684,12 +8504,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
         <v>100000609436</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6752,12 +8592,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
         <v>100000609437</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6820,12 +8680,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
         <v>100000609438</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -6888,12 +8768,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
         <v>100000609439</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -6956,12 +8856,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
         <v>100000609440</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7024,12 +8944,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
         <v>100000609441</v>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7092,12 +9032,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
         <v>100000609442</v>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7160,12 +9120,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
         <v>100000609443</v>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -7228,12 +9208,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
         <v>100000609444</v>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7296,12 +9296,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
         <v>100000613970</v>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7364,12 +9384,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
         <v>100000613971</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7432,12 +9472,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
         <v>100000613972</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7500,12 +9560,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
         <v>100000613973</v>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7568,12 +9648,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
         <v>100000613974</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7636,12 +9736,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
         <v>100000613975</v>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -7704,12 +9824,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
         <v>100000613976</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7772,12 +9912,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
         <v>100000613977</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7840,12 +10000,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
         <v>100000613978</v>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7908,12 +10088,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
         <v>100000613979</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7976,12 +10176,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
         <v>100000613980</v>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8044,12 +10264,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
         <v>100000613981</v>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8112,12 +10352,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
         <v>100000613982</v>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8180,12 +10440,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
         <v>100000613983</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8248,12 +10528,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
         <v>100000613984</v>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8316,12 +10616,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
         <v>100000613985</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8384,12 +10704,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
         <v>100000613986</v>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8452,12 +10792,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
         <v>100000613987</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8520,12 +10880,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
         <v>100000613988</v>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8588,12 +10968,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
         <v>100000613989</v>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8656,12 +11056,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
         <v>100000613990</v>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8724,12 +11144,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
         <v>100000613991</v>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8792,12 +11232,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
         <v>100000613992</v>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8860,12 +11320,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
         <v>100000613993</v>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8928,12 +11408,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
         <v>100000613994</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8996,12 +11496,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
         <v>100000613995</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9064,12 +11584,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
         <v>100000613996</v>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9132,12 +11672,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
         <v>100000615044</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9200,12 +11760,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
         <v>100000615045</v>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -9268,12 +11848,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
         <v>100000615046</v>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9336,12 +11936,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
         <v>100000615047</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9404,12 +12024,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
         <v>100000615048</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9472,12 +12112,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
         <v>100000615049</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9540,12 +12200,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
         <v>100000615050</v>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9608,12 +12288,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
         <v>100000615051</v>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -9676,12 +12376,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
         <v>100000615052</v>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -9744,12 +12464,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
         <v>100000615053</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9812,12 +12552,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
         <v>100000615054</v>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9880,12 +12640,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
         <v>100000615055</v>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9948,12 +12728,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
         <v>100000615056</v>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10016,12 +12816,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
         <v>100000615057</v>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10084,12 +12904,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
         <v>100000615058</v>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10152,12 +12992,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
         <v>100000615059</v>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10220,12 +13080,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
         <v>100000615060</v>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10288,12 +13168,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
         <v>100000615061</v>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10356,12 +13256,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
         <v>100000615062</v>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10424,12 +13344,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
         <v>100000615063</v>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -10492,12 +13432,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
         <v>100000615064</v>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10560,12 +13520,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
         <v>100000615065</v>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10628,12 +13608,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
         <v>100000615066</v>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10696,12 +13696,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
         <v>100000615067</v>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10764,12 +13784,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
         <v>100000615068</v>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10832,12 +13872,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
         <v>100000615069</v>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10900,12 +13960,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
         <v>100000615070</v>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10968,12 +14048,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
         <v>100000615458</v>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11036,12 +14136,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
         <v>100000616267</v>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11104,12 +14224,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
         <v>100000616268</v>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11172,12 +14312,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
         <v>100000616269</v>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11240,12 +14400,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
         <v>100000616270</v>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -11308,12 +14488,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
         <v>100000616271</v>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -11376,12 +14576,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
         <v>100000616272</v>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -11444,12 +14664,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
         <v>100000616273</v>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11512,12 +14752,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
         <v>100000616274</v>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11580,12 +14840,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
         <v>100000616283</v>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11648,12 +14928,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
         <v>100000616284</v>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11716,12 +15016,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
         <v>100000616285</v>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -11784,12 +15104,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
         <v>100000616286</v>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11852,12 +15192,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
         <v>100000616287</v>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11920,12 +15280,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
         <v>100000616288</v>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11988,12 +15368,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
         <v>100000616289</v>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12056,12 +15456,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
         <v>100000616291</v>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12124,12 +15544,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
         <v>100000616292</v>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -12192,12 +15632,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
         <v>100000616293</v>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12260,12 +15720,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
         <v>100000616305</v>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12328,12 +15808,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
         <v>100000616306</v>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12396,12 +15896,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
         <v>100000616309</v>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12464,12 +15984,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
         <v>100000616310</v>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12532,12 +16072,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
         <v>100000616311</v>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12600,12 +16160,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
         <v>100000616312</v>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12668,12 +16248,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
         <v>100000616317</v>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12736,12 +16336,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
         <v>100000618761</v>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12804,12 +16424,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
         <v>100000618763</v>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12872,12 +16512,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
         <v>100000618764</v>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12940,12 +16600,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
         <v>100000618766</v>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13008,12 +16688,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
         <v>100000618770</v>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>PCB</t>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13076,12 +16776,32 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
         <v>100000618771</v>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>PCB</t>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13144,12 +16864,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
         <v>100000618772</v>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>PCB</t>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -13212,12 +16952,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
         <v>100000618777</v>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13280,12 +17040,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
         <v>100000618778</v>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -13348,12 +17128,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
         <v>100000618784</v>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13416,12 +17216,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
         <v>100000618785</v>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13484,12 +17304,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
         <v>100000618786</v>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13552,12 +17392,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
         <v>100000618787</v>
       </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13620,12 +17480,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
         <v>100000618788</v>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13688,12 +17568,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
         <v>100000618789</v>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13756,12 +17656,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
         <v>100000618800</v>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13824,12 +17744,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
         <v>100000618801</v>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13892,12 +17832,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
         <v>100000618804</v>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13960,12 +17920,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
         <v>100000628181</v>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14028,12 +18008,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
         <v>100000628191</v>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14096,12 +18096,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
         <v>100000628192</v>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14164,12 +18184,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
         <v>100000628400</v>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -14232,12 +18272,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
         <v>100000628401</v>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14300,12 +18360,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
         <v>100000628413</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14368,12 +18448,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
         <v>100000629193</v>
       </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -14436,12 +18536,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
         <v>100000629613</v>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14504,12 +18624,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
         <v>100000629725</v>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14572,12 +18712,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
         <v>100000629841</v>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>PRB</t>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14640,12 +18800,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
         <v>100000629847</v>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14708,12 +18888,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
         <v>100000629951</v>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14776,12 +18976,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
         <v>100000630059</v>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -14844,12 +19064,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
         <v>100000630061</v>
       </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14912,12 +19152,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
         <v>100000630071</v>
       </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14980,12 +19240,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
         <v>100000630111</v>
       </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
